--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mixai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Спортсмен №1</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Выигрыш</t>
+  </si>
+  <si>
+    <t>wewefwef</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,7 +1336,7 @@
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1485,6 +1488,11 @@
       </c>
       <c r="D11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Спортсмен №1</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>qweq3</t>
+  </si>
+  <si>
+    <t>433t34t34t</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,9 +1506,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>234234</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Спортсмен №1</t>
   </si>
@@ -71,7 +71,10 @@
     <t>Выигрыш</t>
   </si>
   <si>
-    <t>wewefwef</t>
+    <t>qweq3</t>
+  </si>
+  <si>
+    <t>433t34t34t</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,7 +1339,7 @@
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1490,9 +1493,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>234234</v>
+      </c>
+      <c r="D14">
+        <v>234234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>234234</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
